--- a/biology/Zoologie/Buse_blanche/Buse_blanche.xlsx
+++ b/biology/Zoologie/Buse_blanche/Buse_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudastur albicollis
 La Buse blanche (Pseudastur albicollis, anciennement Leucopternis albicollis) est une espèce de rapace de la zone tropicale de l'Amérique, appartenant à la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rapace d'environ 56 cm de longueur présente un plumage essentiellement blanc avec des marques noires sur les rémiges primaires et une bande sub-terminale de même couleur à la queue assez courte. Ses ailes sont larges.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts pourvu qu'elles ne soient pas sèches.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des quatre sous-espèces suivantes :
 Pseudastur albicollis ghiesbreghti (Du Bus de Gisignies) 1845
@@ -612,7 +630,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « White Hawk » (voir la liste des auteurs).</t>
         </is>
